--- a/biology/Médecine/Sturmius_(mathématicien)/Sturmius_(mathématicien).xlsx
+++ b/biology/Médecine/Sturmius_(mathématicien)/Sturmius_(mathématicien).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sturmius_(math%C3%A9maticien)</t>
+          <t>Sturmius_(mathématicien)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Storms ou Jean Sturm, latinisé en Sturmius, est un professeur de mathématiques, médecin et poète belge des XVIe et XVIIe siècles. Né le 29 août 1559 à Malines, mort vers 1650, il eut pour élève le médecin chirurgien et philosophe Thomas Fienus.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sturmius_(math%C3%A9maticien)</t>
+          <t>Sturmius_(mathématicien)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève du collège du Lys, à Louvain, où il enseigna par la suite, dès 1584, la dialectique et la métaphysique, Sturmius est promu à la chaire de médecine en 1591. Il succède à Adrien Romain à la tête de l'université de Louvain lorsque ce dernier quitte la ville  pour se rendre en Allemagne. Sturmius se fait alors connaître  comme mathématicien et poète ; il parait avoir brillé comme improvisateur.
 Sturmius enseigne les mathématiques pendant plusieurs années. Il versifie ses communications scientifiques. À une époque où l'université de Louvain (catholique) se devait de rivaliser contre Anvers ou Leyde (protestantes), il est attaqué par le corps des jésuites, qui l'accusent d'être incapable de défendre leur cause. Thomas Fienus, élève de Romain et son propre élève, lui succéda peu après.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sturmius_(math%C3%A9maticien)</t>
+          <t>Sturmius_(mathématicien)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sturmius a laissé plusieurs écrits, dans lesquels il ramasse des connaissances hétéroclites. Ses œuvres sont en latin, versifiées, et portent sur des sujets les plus variés :
 (la) De rosa Hierichuntina liber unus. In quo de ejus natura proprietatibus motibus et causis pulchre disseritur, 1607 (sur la rose de Jéricho).
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sturmius_(math%C3%A9maticien)</t>
+          <t>Sturmius_(mathématicien)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adolphe Quetelet, Histoire des sciences mathématiques et physiques chez les Belges, p. 138-140.
 Pierre François Xavier de Ram, Analectes pour servir à l'histoire de l'Université de Louvain, vol. 21, 1858, p. 43-63</t>
